--- a/wwwroot/files/1956.xlsx
+++ b/wwwroot/files/1956.xlsx
@@ -3,398 +3,396 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asker\Documents\Ракета\Проекты\НИИТ\генезис\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96D346-D9CB-4705-A885-16476D135B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19260" yWindow="-60" windowWidth="19320" windowHeight="10470" xr2:uid="{36C6D614-C621-434A-8457-6EF5E12A859C}"/>
+    <workbookView xWindow="-19260" yWindow="-60" windowWidth="19320" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="121">
-  <si>
-    <t>MBRAF440T3G диод  (ON Semiconductor)</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>PMEG4010BEA.115 диод (Nexperia)</t>
-  </si>
-  <si>
-    <t>BLM18PG121SN1D ДРОССЕЛЬ (Murata)</t>
-  </si>
-  <si>
-    <t>CM453232-470KL катушка индуктивн. (BOURNS)</t>
-  </si>
-  <si>
-    <t>CM322522-100KL ИНДУКТИВНОСТЬ (Bourns)</t>
-  </si>
-  <si>
-    <t>LQH32CN101K23L Индуктивность (Murata)</t>
-  </si>
-  <si>
-    <t>SRP6030VA-4R7M Индуктивность (Bourns)</t>
-  </si>
-  <si>
-    <t>7443550320 Индуктивность (Wurth Elektronik)</t>
-  </si>
-  <si>
-    <t>74435581200 Индуктивность (Wurth Elektronik)</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R6BB104 Конденсатор (Yageo)</t>
-  </si>
-  <si>
-    <t>CC0402KRX5R6BB475 конденсатор (Yageo)</t>
-  </si>
-  <si>
-    <t>GCM155R71C224KE02D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>CC0402KRX5R7BB105 КОНДЕНСАТОР (Yageo)</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R8BB103 конденсатор (Yageo)</t>
-  </si>
-  <si>
-    <t>GCM1555C1H220JA16D конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM1555C1H471JA01D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM188R61E106MA73D конденсатор 0603 10UF 25V X5R 20% (Murata)</t>
-  </si>
-  <si>
-    <t>GRM188Z71A475ME15D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>CX0603MRX7R6BB104 Конденсатор (Pulse)</t>
-  </si>
-  <si>
-    <t>CGA3E3X5R1H105K080AB конденсатор (TDK Corporation)(1µF ±10% 50V Ceramic Capacitor X5R 0603 )</t>
-  </si>
-  <si>
-    <t>GRM21BR61E226ME44L Конденсатор керамический (Murata)</t>
-  </si>
-  <si>
-    <t>GRM32ER71A476ME15L Конденсатор (X7R-10 В-47 мкФ±20 %) (Murata)</t>
-  </si>
-  <si>
-    <t>GRM32EC72A106KE05L конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM31CR71E106KA12L конденсатор (1206-X7R-25 B-10 мкФ ± 10%) (Murata)</t>
-  </si>
-  <si>
-    <t>GCM21BC72A105KE36L Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GCM21BR71H474KA55L Чип-конденсатор типоразмер  (Murata)</t>
-  </si>
-  <si>
-    <t>GRM32DR71E106KA12L КОНДЕНСАТОР КЕРАМИЧЕСКИЙ SMD GRM32D X7R 10 МКФ 25В 10 (Murata)</t>
-  </si>
-  <si>
-    <t>06031C104KAT4A Конденсатор (Kyocera AVX)</t>
-  </si>
-  <si>
-    <t>GRM32ER71H106KA12L КОНДЕНСАТОР КЕРАМИЧЕСКИЙ SMD GRM32 X7R 10 МКФ 50В 20 (Murata)</t>
-  </si>
-  <si>
-    <t>UFG1A221MPM Конденсатор (Nichicon)</t>
-  </si>
-  <si>
-    <t>GCM188R71C474KA55D Конденсатор 0603 0.47мкФ±10% 16В X7R (Murata)</t>
-  </si>
-  <si>
-    <t>GRM31CC72A475KE11L Конденсатор 1206 4,7UF 100V X7S 10% (Murata)</t>
-  </si>
-  <si>
-    <t>GRM32EC70J107ME15L конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>KCM55LR72A475KH01K Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM1555C1H222JA01D конденсатор 0402 NP0 2200 пФ +-5% 50В (Murata)</t>
-  </si>
-  <si>
-    <t>GRM1555C1H102JA01D КОНДЕНСАТОР КЕРАМИЧЕСКИЙ SMD GRM155 COG 1000 ПФ 50В 5 0402 (Murata)</t>
-  </si>
-  <si>
-    <t>GRM1555C1H472JE01D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM155R71C473JA01D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRT1555C1H911FA02D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>DRV8834PWPR Микросхема (Texas Instruments)</t>
-  </si>
-  <si>
-    <t>DRV8434SEVM Микросхема (Texas Instruments)</t>
-  </si>
-  <si>
-    <t>LMH0344SQE/NOPB Микросхема (Texas Instruments)</t>
-  </si>
-  <si>
-    <t>LMH0346SQE/NOPB Микросхема (Texas Instruments)</t>
-  </si>
-  <si>
-    <t>LMH0302SQE/NOPB Микросхема (Texas Instruments)</t>
-  </si>
-  <si>
-    <t>ADN4604ASVZ Микросхема (AD)</t>
-  </si>
-  <si>
-    <t>MAX9814ETD+T микросхема (Maxim)</t>
-  </si>
-  <si>
-    <t>B0505LS-1WR3 Микросхема (MORNSUN)</t>
-  </si>
-  <si>
-    <t>SHT30-DIS-B Микросхема (SENSIR)</t>
-  </si>
-  <si>
-    <t>LTC3407AEDD#TRPBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>LT8391IFE#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>LTC3630EMSE#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>LT3085EDCB#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>DS1809Z-100+ Микросхема (Maxim Integrated)</t>
-  </si>
-  <si>
-    <t>IMX265LLR-C Микросхема (Sony)</t>
-  </si>
-  <si>
-    <t>IMX265LQR-C микросхема (Sony)</t>
-  </si>
-  <si>
-    <t>5CEBA4F17I7N Микросхема (Altera)</t>
-  </si>
-  <si>
-    <t>HX5008NL Трансформатор</t>
-  </si>
-  <si>
-    <t>KSZ9031MNXIA-TR МИКРОСХЕМА (Microchip Technology)</t>
-  </si>
-  <si>
-    <t>ADV7123JSTZ240 Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>DSC1121AI2-148.5000T Микросхема (Microchip)</t>
-  </si>
-  <si>
-    <t>EPCQ128ASI16N микросхема (Altera)</t>
-  </si>
-  <si>
-    <t>MIC33153-YHJ-TR Микросхема (Microchip)</t>
-  </si>
-  <si>
-    <t>DAC7311 Микросхема (Texas Instruments)</t>
-  </si>
-  <si>
-    <t>FM25L16B-DGTR Микросхема (INFINEON)</t>
-  </si>
-  <si>
-    <t>GS2972-IBE3 Микросхема (SEMTECH)</t>
-  </si>
-  <si>
-    <t>LTC3112EDHD#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>IS43TR16640C-125JBLI Микросхема (ISSI)</t>
-  </si>
-  <si>
-    <t>LTC3634IFE#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>LMZ30604RKGT Микросхема (Texas Instruments)</t>
-  </si>
-  <si>
-    <t>HD-BNC 034-1024 Разъём (AMPHENOL)</t>
-  </si>
-  <si>
-    <t>HD-BNC 034-1061 Разъём (AMPHENOL)</t>
-  </si>
-  <si>
-    <t>HD-BNC 034-1030-12G Разъём (AMPHENOL)</t>
-  </si>
-  <si>
-    <t>63951-1 Разъём (TE Connectivity)</t>
-  </si>
-  <si>
-    <t>DF40C-50DP-0.4V(51) Разъём (Hirose)</t>
-  </si>
-  <si>
-    <t>DF40HC(4.0)-50DS-0.4V(51) Разъём (Hirose)</t>
-  </si>
-  <si>
-    <t>DF11-6DS-2DSA(06) Разъём (Hirose)</t>
-  </si>
-  <si>
-    <t>53398-0371 разъем (MOLEX)</t>
-  </si>
-  <si>
-    <t>LTW DDD-25PFFS-SL8001 Розетка (AMPHENOL)</t>
-  </si>
-  <si>
-    <t>52271-1479 Розетка (Molex)</t>
-  </si>
-  <si>
-    <t>20817-606 Микровыключатель (Schroff)</t>
-  </si>
-  <si>
-    <t>SJ-3523-SMT-TR Разъём (CUI Devices)</t>
-  </si>
-  <si>
-    <t>DVS25-01TD81BWAQC Жесткий диск (-)</t>
-  </si>
-  <si>
-    <t>AVerMedia Mini PCI-e HW Encode Capture Card with 3 Плата видеозахвата (AverMedia)</t>
-  </si>
-  <si>
-    <t>IPR3WAD2 Кнопка (-)</t>
-  </si>
-  <si>
-    <t>JS-100 Крепежный ремешок (-)</t>
-  </si>
-  <si>
-    <t>DVD-RW SDRW-08U7M-U Привод DVD-RW (ASUS)</t>
-  </si>
-  <si>
-    <t>SD6025D2B Вентилятор (Sensdar)</t>
-  </si>
-  <si>
-    <t>SD6025D4B Вентилятор (Sensdar)</t>
-  </si>
-  <si>
-    <t>SRA-73625 Сочленение вращающееся (Moog)</t>
-  </si>
-  <si>
-    <t>GRM155R60J226ME11D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GQM1555C2D100GB01D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM1885C2E470FW07D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM1555C1H101FA16 Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM1555C1H561JA01D Конденсатор 0402 50В 560пФ 5% (Murata)</t>
-  </si>
-  <si>
-    <t>GCM1555C1H681JA01D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R8BB563 Конденсатор (Yageo)</t>
-  </si>
-  <si>
-    <t>GRT188R61H225KE13D Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>GRM31CR71H155KA88L конденсатор 1206 X7R 1.5мкФ ±10% 50В (.)</t>
-  </si>
-  <si>
-    <t>GCD21BR71H104KA01L Конденсатор (Murata)</t>
-  </si>
-  <si>
-    <t>DR73-680-R Индуктивность (Eaton)</t>
-  </si>
-  <si>
-    <t>FBMH2012HM221-T Индуктивность (TAIYO YUDEN)</t>
-  </si>
-  <si>
-    <t>ADM2687EBRIZ Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>LT3518IUF#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>LTC2262IUJ-12#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>LTC6400IUD-20#PBF микросхема  (LTC6400IUD-20x) (LINEAR TECHNOLOGY)</t>
-  </si>
-  <si>
-    <t>LTM4644IY#PBF Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>AD8061ARTZ-REEL7 МИКРОСХЕМА (Analog Devices)</t>
-  </si>
-  <si>
-    <t>AD1580BKSZ-REEL7 Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>AD9239BCPZ-250 Микросхема (Analog Devices)</t>
-  </si>
-  <si>
-    <t>034 1026 HD-BNC Разъём (AMPHENOL)</t>
-  </si>
-  <si>
-    <t>KS3PB-AU Разъём (AMPHENOL)</t>
-  </si>
-  <si>
-    <t>PXMBNI08FIM05BSC Разъём (BULGIN)</t>
-  </si>
-  <si>
-    <t>2064600041 Разъём (Molex)</t>
-  </si>
-  <si>
-    <t>2064611800 Разъём (Molex)</t>
-  </si>
-  <si>
-    <t>2068321801 Разъём (Molex)</t>
-  </si>
-  <si>
-    <t>US219 USB Хаб (Ugreen)</t>
-  </si>
-  <si>
-    <t>CMS-160925-078SP-67 Динамик (CUI Devices)</t>
-  </si>
-  <si>
-    <t>Микросхема2</t>
-  </si>
-  <si>
-    <t>Микросхема1</t>
-  </si>
-  <si>
-    <t>Микросхема3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="122">
+  <si>
+    <t xml:space="preserve">MBRAF440T3G диод  (ON Semiconductor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMEG4010BEA.115 диод (Nexperia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM18PG121SN1D ДРОССЕЛЬ (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM453232-470KL катушка индуктивн. (BOURNS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM322522-100KL ИНДУКТИВНОСТЬ (Bourns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LQH32CN101K23L Индуктивность (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP6030VA-4R7M Индуктивность (Bourns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7443550320 Индуктивность (Wurth Elektronik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74435581200 Индуктивность (Wurth Elektronik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0402KRX7R6BB104 Конденсатор (Yageo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0402KRX5R6BB475 конденсатор (Yageo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM155R71C224KE02D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0402KRX5R7BB105 КОНДЕНСАТОР (Yageo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0402KRX7R8BB103 конденсатор (Yageo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM1555C1H220JA16D конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1555C1H471JA01D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188R61E106MA73D конденсатор 0603 10UF 25V X5R 20% (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188Z71A475ME15D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CX0603MRX7R6BB104 Конденсатор (Pulse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGA3E3X5R1H105K080AB конденсатор (TDK Corporation)(1µF ±10% 50V Ceramic Capacitor X5R 0603 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM21BR61E226ME44L Конденсатор керамический (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER71A476ME15L Конденсатор (X7R-10 В-47 мкФ±20 %) (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32EC72A106KE05L конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM31CR71E106KA12L конденсатор (1206-X7R-25 B-10 мкФ ± 10%) (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM21BC72A105KE36L Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM21BR71H474KA55L Чип-конденсатор типоразмер  (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32DR71E106KA12L КОНДЕНСАТОР КЕРАМИЧЕСКИЙ SMD GRM32D X7R 10 МКФ 25В 10 (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06031C104KAT4A Конденсатор (Kyocera AVX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER71H106KA12L КОНДЕНСАТОР КЕРАМИЧЕСКИЙ SMD GRM32 X7R 10 МКФ 50В 20 (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFG1A221MPM Конденсатор (Nichicon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM188R71C474KA55D Конденсатор 0603 0.47мкФ±10% 16В X7R (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM31CC72A475KE11L Конденсатор 1206 4,7UF 100V X7S 10% (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32EC70J107ME15L конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCM55LR72A475KH01K Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1555C1H222JA01D конденсатор 0402 NP0 2200 пФ +-5% 50В (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1555C1H102JA01D КОНДЕНСАТОР КЕРАМИЧЕСКИЙ SMD GRM155 COG 1000 ПФ 50В 5 0402 (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1555C1H472JE01D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM155R71C473JA01D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRT1555C1H911FA02D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8834PWPR Микросхема (Texas Instruments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRV8434SEVM Микросхема (Texas Instruments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMH0344SQE/NOPB Микросхема (Texas Instruments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMH0346SQE/NOPB Микросхема (Texas Instruments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMH0302SQE/NOPB Микросхема (Texas Instruments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADN4604ASVZ Микросхема (AD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX9814ETD+T микросхема (Maxim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0505LS-1WR3 Микросхема (MORNSUN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHT30-DIS-B Микросхема (SENSIR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3407AEDD#TRPBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT8391IFE#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3630EMSE#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT3085EDCB#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1809Z-100+ Микросхема (Maxim Integrated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMX265LLR-C Микросхема (Sony)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMX265LQR-C микросхема (Sony)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5CEBA4F17I7N Микросхема (Altera)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HX5008NL Трансформатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSZ9031MNXIA-TR МИКРОСХЕМА (Microchip Technology)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADV7123JSTZ240 Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSC1121AI2-148.5000T Микросхема (Microchip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPCQ128ASI16N микросхема (Altera)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIC33153-YHJ-TR Микросхема (Microchip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAC7311 Микросхема (Texas Instruments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM25L16B-DGTR Микросхема (INFINEON)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS2972-IBE3 Микросхема (SEMTECH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3112EDHD#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS43TR16640C-125JBLI Микросхема (ISSI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC3634IFE#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMZ30604RKGT Микросхема (Texas Instruments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD-BNC 034-1024 Разъём (AMPHENOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD-BNC 034-1061 Разъём (AMPHENOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD-BNC 034-1030-12G Разъём (AMPHENOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63951-1 Разъём (TE Connectivity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF40C-50DP-0.4V(51) Разъём (Hirose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF40HC(4.0)-50DS-0.4V(51) Разъём (Hirose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF11-6DS-2DSA(06) Разъём (Hirose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53398-0371 разъем (MOLEX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTW DDD-25PFFS-SL8001 Розетка (AMPHENOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52271-1479 Розетка (Molex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20817-606 Микровыключатель (Schroff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ-3523-SMT-TR Разъём (CUI Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVS25-01TD81BWAQC Жесткий диск (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVerMedia Mini PCI-e HW Encode Capture Card with 3 Плата видеозахвата (AverMedia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPR3WAD2 Кнопка (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS-100 Крепежный ремешок (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVD-RW SDRW-08U7M-U Привод DVD-RW (ASUS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD6025D2B Вентилятор (Sensdar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD6025D4B Вентилятор (Sensdar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRA-73625 Сочленение вращающееся (Moog)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM155R60J226ME11D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQM1555C2D100GB01D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1885C2E470FW07D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1555C1H101FA16 Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM1555C1H561JA01D Конденсатор 0402 50В 560пФ 5% (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM1555C1H681JA01D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0603KRX7R8BB563 Конденсатор (Yageo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRT188R61H225KE13D Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM31CR71H155KA88L конденсатор 1206 X7R 1.5мкФ ±10% 50В (.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCD21BR71H104KA01L Конденсатор (Murata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR73-680-R Индуктивность (Eaton)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBMH2012HM221-T Индуктивность (TAIYO YUDEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM2687EBRIZ Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT3518IUF#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC2262IUJ-12#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTC6400IUD-20#PBF микросхема  (LTC6400IUD-20x) (LINEAR TECHNOLOGY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTM4644IY#PBF Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD8061ARTZ-REEL7 МИКРОСХЕМА (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD1580BKSZ-REEL7 Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD9239BCPZ-250 Микросхема (Analog Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">034 1026 HD-BNC Разъём (AMPHENOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS3PB-AU Разъём (AMPHENOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PXMBNI08FIM05BSC Разъём (BULGIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2064600041 Разъём (Molex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2064611800 Разъём (Molex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2068321801 Разъём (Molex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US219 USB Хаб (Ugreen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMS-160925-078SP-67 Динамик (CUI Devices)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Микросхема2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Микросхема1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Микросхема3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость испытаний, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +407,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,9 +500,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -527,6 +537,358 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,11 +896,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -840,7 +1202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244542A1-38B6-4C8F-BE4E-ADF42B664943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -885,6 +1247,12 @@
         <f>H1*E1-I1</f>
         <v>0</v>
       </c>
+      <c r="L1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="247">
+        <v>49034</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -914,6 +1282,15 @@
         <f>H2*E2-I2</f>
         <v>0</v>
       </c>
+      <c r="L2" s="13">
+        <v>49034</v>
+      </c>
+      <c r="M2" s="130">
+        <v>49034</v>
+      </c>
+      <c r="N2" s="248">
+        <v>45336</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -943,6 +1320,15 @@
         <f>H3*E3-I3</f>
         <v>0</v>
       </c>
+      <c r="L3" s="14">
+        <v>45336</v>
+      </c>
+      <c r="M3" s="131">
+        <v>45336</v>
+      </c>
+      <c r="N3" s="249">
+        <v>32210</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -972,6 +1358,15 @@
         <f>H4*E4-I4</f>
         <v>0</v>
       </c>
+      <c r="L4" s="15">
+        <v>32210</v>
+      </c>
+      <c r="M4" s="132">
+        <v>32210</v>
+      </c>
+      <c r="N4" s="250">
+        <v>18962</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1001,6 +1396,15 @@
         <f>H5*E5-I5</f>
         <v>0</v>
       </c>
+      <c r="L5" s="16">
+        <v>18962</v>
+      </c>
+      <c r="M5" s="133">
+        <v>18962</v>
+      </c>
+      <c r="N5" s="251">
+        <v>16937</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1030,6 +1434,15 @@
         <f>H6*E6-I6</f>
         <v>0</v>
       </c>
+      <c r="L6" s="17">
+        <v>16937</v>
+      </c>
+      <c r="M6" s="134">
+        <v>16937</v>
+      </c>
+      <c r="N6" s="252">
+        <v>17868</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1059,6 +1472,15 @@
         <f>H7*E7-I7</f>
         <v>0</v>
       </c>
+      <c r="L7" s="18">
+        <v>17868</v>
+      </c>
+      <c r="M7" s="135">
+        <v>17868</v>
+      </c>
+      <c r="N7" s="253">
+        <v>21206</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1087,6 +1509,15 @@
       <c r="K8">
         <f>H8*E8-I8</f>
         <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>21206</v>
+      </c>
+      <c r="M8" s="136">
+        <v>21206</v>
+      </c>
+      <c r="N8" s="254">
+        <v>19400</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,6 +1548,15 @@
         <f>H9*E9-I9</f>
         <v>0</v>
       </c>
+      <c r="L9" s="20">
+        <v>19400</v>
+      </c>
+      <c r="M9" s="137">
+        <v>19400</v>
+      </c>
+      <c r="N9" s="255">
+        <v>19400</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1146,6 +1586,15 @@
         <f>H10*E10-I10</f>
         <v>0</v>
       </c>
+      <c r="L10" s="21">
+        <v>19400</v>
+      </c>
+      <c r="M10" s="138">
+        <v>19400</v>
+      </c>
+      <c r="N10" s="256">
+        <v>155636</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1175,6 +1624,15 @@
         <f>H11*E11-I11</f>
         <v>0</v>
       </c>
+      <c r="L11" s="22">
+        <v>155636</v>
+      </c>
+      <c r="M11" s="139">
+        <v>155636</v>
+      </c>
+      <c r="N11" s="257">
+        <v>21455</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1204,6 +1662,15 @@
         <f>H12*E12-I12</f>
         <v>0</v>
       </c>
+      <c r="L12" s="23">
+        <v>21455</v>
+      </c>
+      <c r="M12" s="140">
+        <v>21455</v>
+      </c>
+      <c r="N12" s="258">
+        <v>17196</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1233,6 +1700,15 @@
         <f>H13*E13-I13</f>
         <v>0</v>
       </c>
+      <c r="L13" s="24">
+        <v>17196</v>
+      </c>
+      <c r="M13" s="141">
+        <v>17196</v>
+      </c>
+      <c r="N13" s="259">
+        <v>44613</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -1262,6 +1738,15 @@
         <f>H14*E14-I14</f>
         <v>0</v>
       </c>
+      <c r="L14" s="25">
+        <v>44613</v>
+      </c>
+      <c r="M14" s="142">
+        <v>44613</v>
+      </c>
+      <c r="N14" s="260">
+        <v>52265</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1291,6 +1776,15 @@
         <f>H15*E15-I15</f>
         <v>0</v>
       </c>
+      <c r="L15" s="26">
+        <v>52265</v>
+      </c>
+      <c r="M15" s="143">
+        <v>52265</v>
+      </c>
+      <c r="N15" s="261">
+        <v>18190</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -1320,6 +1814,15 @@
         <f>H16*E16-I16</f>
         <v>0</v>
       </c>
+      <c r="L16" s="27">
+        <v>18190</v>
+      </c>
+      <c r="M16" s="144">
+        <v>18190</v>
+      </c>
+      <c r="N16" s="262">
+        <v>18853</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1349,6 +1852,15 @@
         <f>H17*E17-I17</f>
         <v>0</v>
       </c>
+      <c r="L17" s="28">
+        <v>18853</v>
+      </c>
+      <c r="M17" s="145">
+        <v>18853</v>
+      </c>
+      <c r="N17" s="263">
+        <v>25434</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1378,6 +1890,15 @@
         <f>H18*E18-I18</f>
         <v>0</v>
       </c>
+      <c r="L18" s="29">
+        <v>25434</v>
+      </c>
+      <c r="M18" s="146">
+        <v>25434</v>
+      </c>
+      <c r="N18" s="264">
+        <v>31988</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1407,6 +1928,15 @@
         <f>H19*E19-I19</f>
         <v>0</v>
       </c>
+      <c r="L19" s="30">
+        <v>31988</v>
+      </c>
+      <c r="M19" s="147">
+        <v>31988</v>
+      </c>
+      <c r="N19" s="265">
+        <v>27831</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1436,6 +1966,15 @@
         <f>H20*E20-I20</f>
         <v>0</v>
       </c>
+      <c r="L20" s="31">
+        <v>27831</v>
+      </c>
+      <c r="M20" s="148">
+        <v>27831</v>
+      </c>
+      <c r="N20" s="266">
+        <v>17910</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -1465,6 +2004,15 @@
         <f>H21*E21-I21</f>
         <v>0</v>
       </c>
+      <c r="L21" s="32">
+        <v>17910</v>
+      </c>
+      <c r="M21" s="149">
+        <v>17910</v>
+      </c>
+      <c r="N21" s="267">
+        <v>22399</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1494,6 +2042,15 @@
         <f>H22*E22-I22</f>
         <v>0</v>
       </c>
+      <c r="L22" s="33">
+        <v>22399</v>
+      </c>
+      <c r="M22" s="150">
+        <v>22399</v>
+      </c>
+      <c r="N22" s="268">
+        <v>19899</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -1523,6 +2080,15 @@
         <f>H23*E23-I23</f>
         <v>0</v>
       </c>
+      <c r="L23" s="34">
+        <v>19899</v>
+      </c>
+      <c r="M23" s="151">
+        <v>19899</v>
+      </c>
+      <c r="N23" s="269">
+        <v>20027</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -1552,6 +2118,15 @@
         <f>H24*E24-I24</f>
         <v>0</v>
       </c>
+      <c r="L24" s="35">
+        <v>20027</v>
+      </c>
+      <c r="M24" s="152">
+        <v>20027</v>
+      </c>
+      <c r="N24" s="270">
+        <v>17706</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -1581,6 +2156,15 @@
         <f>H25*E25-I25</f>
         <v>0</v>
       </c>
+      <c r="L25" s="36">
+        <v>17706</v>
+      </c>
+      <c r="M25" s="153">
+        <v>17706</v>
+      </c>
+      <c r="N25" s="271">
+        <v>18343</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -1610,6 +2194,15 @@
         <f>H26*E26-I26</f>
         <v>0</v>
       </c>
+      <c r="L26" s="37">
+        <v>18343</v>
+      </c>
+      <c r="M26" s="154">
+        <v>18343</v>
+      </c>
+      <c r="N26" s="272">
+        <v>17196</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1639,6 +2232,15 @@
         <f>H27*E27-I27</f>
         <v>0</v>
       </c>
+      <c r="L27" s="38">
+        <v>17196</v>
+      </c>
+      <c r="M27" s="155">
+        <v>17196</v>
+      </c>
+      <c r="N27" s="273">
+        <v>18190</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -1668,6 +2270,15 @@
         <f>H28*E28-I28</f>
         <v>0</v>
       </c>
+      <c r="L28" s="39">
+        <v>18190</v>
+      </c>
+      <c r="M28" s="156">
+        <v>18190</v>
+      </c>
+      <c r="N28" s="274">
+        <v>24414</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1697,6 +2308,15 @@
         <f>H29*E29-I29</f>
         <v>0</v>
       </c>
+      <c r="L29" s="40">
+        <v>24414</v>
+      </c>
+      <c r="M29" s="157">
+        <v>24414</v>
+      </c>
+      <c r="N29" s="275">
+        <v>19211</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -1726,6 +2346,15 @@
         <f>H30*E30-I30</f>
         <v>0</v>
       </c>
+      <c r="L30" s="41">
+        <v>19211</v>
+      </c>
+      <c r="M30" s="158">
+        <v>19211</v>
+      </c>
+      <c r="N30" s="276">
+        <v>16941</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -1755,6 +2384,15 @@
         <f>H31*E31-I31</f>
         <v>0</v>
       </c>
+      <c r="L31" s="42">
+        <v>16941</v>
+      </c>
+      <c r="M31" s="159">
+        <v>16941</v>
+      </c>
+      <c r="N31" s="277">
+        <v>17910</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -1784,6 +2422,15 @@
         <f>H32*E32-I32</f>
         <v>0</v>
       </c>
+      <c r="L32" s="43">
+        <v>17910</v>
+      </c>
+      <c r="M32" s="160">
+        <v>17910</v>
+      </c>
+      <c r="N32" s="278">
+        <v>21685</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1813,6 +2460,15 @@
         <f>H33*E33-I33</f>
         <v>0</v>
       </c>
+      <c r="L33" s="44">
+        <v>21685</v>
+      </c>
+      <c r="M33" s="161">
+        <v>21685</v>
+      </c>
+      <c r="N33" s="279">
+        <v>19236</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -1842,6 +2498,15 @@
         <f>H34*E34-I34</f>
         <v>0</v>
       </c>
+      <c r="L34" s="45">
+        <v>19236</v>
+      </c>
+      <c r="M34" s="162">
+        <v>19236</v>
+      </c>
+      <c r="N34" s="280">
+        <v>17298</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -1871,6 +2536,15 @@
         <f>H35*E35-I35</f>
         <v>0</v>
       </c>
+      <c r="L35" s="46">
+        <v>17298</v>
+      </c>
+      <c r="M35" s="163">
+        <v>17298</v>
+      </c>
+      <c r="N35" s="281">
+        <v>19542</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -1900,6 +2574,15 @@
         <f>H36*E36-I36</f>
         <v>0</v>
       </c>
+      <c r="L36" s="47">
+        <v>19542</v>
+      </c>
+      <c r="M36" s="164">
+        <v>19542</v>
+      </c>
+      <c r="N36" s="282">
+        <v>23138</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -1929,6 +2612,15 @@
         <f>H37*E37-I37</f>
         <v>0</v>
       </c>
+      <c r="L37" s="48">
+        <v>23138</v>
+      </c>
+      <c r="M37" s="165">
+        <v>23138</v>
+      </c>
+      <c r="N37" s="283">
+        <v>18088</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -1958,6 +2650,15 @@
         <f>H38*E38-I38</f>
         <v>0</v>
       </c>
+      <c r="L38" s="49">
+        <v>18088</v>
+      </c>
+      <c r="M38" s="166">
+        <v>18088</v>
+      </c>
+      <c r="N38" s="284">
+        <v>17808</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -1987,6 +2688,15 @@
         <f>H39*E39-I39</f>
         <v>0</v>
       </c>
+      <c r="L39" s="50">
+        <v>17808</v>
+      </c>
+      <c r="M39" s="167">
+        <v>17808</v>
+      </c>
+      <c r="N39" s="285">
+        <v>16839</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -2018,6 +2728,15 @@
         <f>H40*E40-I40</f>
         <v>0</v>
       </c>
+      <c r="L40" s="51">
+        <v>16839</v>
+      </c>
+      <c r="M40" s="168">
+        <v>16839</v>
+      </c>
+      <c r="N40" s="286">
+        <v>64720</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -2049,6 +2768,15 @@
         <f>H41*E41-I41</f>
         <v>0</v>
       </c>
+      <c r="L41" s="52">
+        <v>64720</v>
+      </c>
+      <c r="M41" s="169">
+        <v>64720</v>
+      </c>
+      <c r="N41" s="287">
+        <v>348506</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -2080,6 +2808,15 @@
         <f>H42*E42-I42</f>
         <v>0</v>
       </c>
+      <c r="L42" s="53">
+        <v>348506</v>
+      </c>
+      <c r="M42" s="170">
+        <v>348506</v>
+      </c>
+      <c r="N42" s="288">
+        <v>49714</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
@@ -2111,6 +2848,15 @@
         <f>H43*E43-I43</f>
         <v>0</v>
       </c>
+      <c r="L43" s="54">
+        <v>49714</v>
+      </c>
+      <c r="M43" s="171">
+        <v>49714</v>
+      </c>
+      <c r="N43" s="289">
+        <v>47394</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
@@ -2142,6 +2888,15 @@
         <f>H44*E44-I44</f>
         <v>0</v>
       </c>
+      <c r="L44" s="55">
+        <v>47394</v>
+      </c>
+      <c r="M44" s="172">
+        <v>47394</v>
+      </c>
+      <c r="N44" s="290">
+        <v>47921</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
@@ -2173,6 +2928,15 @@
         <f>H45*E45-I45</f>
         <v>0</v>
       </c>
+      <c r="L45" s="56">
+        <v>47921</v>
+      </c>
+      <c r="M45" s="173">
+        <v>47921</v>
+      </c>
+      <c r="N45" s="291">
+        <v>60587</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
@@ -2204,6 +2968,15 @@
         <f>H46*E46-I46</f>
         <v>0</v>
       </c>
+      <c r="L46" s="57">
+        <v>60587</v>
+      </c>
+      <c r="M46" s="174">
+        <v>60587</v>
+      </c>
+      <c r="N46" s="292">
+        <v>60587</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
@@ -2235,6 +3008,15 @@
         <f>H47*E47-I47</f>
         <v>0</v>
       </c>
+      <c r="L47" s="58">
+        <v>60587</v>
+      </c>
+      <c r="M47" s="175">
+        <v>60587</v>
+      </c>
+      <c r="N47" s="293">
+        <v>50768</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -2266,6 +3048,15 @@
         <f>H48*E48-I48</f>
         <v>0</v>
       </c>
+      <c r="L48" s="59">
+        <v>50768</v>
+      </c>
+      <c r="M48" s="176">
+        <v>50768</v>
+      </c>
+      <c r="N48" s="294">
+        <v>70375</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -2297,6 +3088,15 @@
         <f>H49*E49-I49</f>
         <v>0</v>
       </c>
+      <c r="L49" s="60">
+        <v>70375</v>
+      </c>
+      <c r="M49" s="177">
+        <v>70375</v>
+      </c>
+      <c r="N49" s="295">
+        <v>43914</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -2328,6 +3128,15 @@
         <f>H50*E50-I50</f>
         <v>0</v>
       </c>
+      <c r="L50" s="61">
+        <v>43914</v>
+      </c>
+      <c r="M50" s="178">
+        <v>43914</v>
+      </c>
+      <c r="N50" s="296">
+        <v>46867</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
@@ -2359,6 +3168,15 @@
         <f>H51*E51-I51</f>
         <v>0</v>
       </c>
+      <c r="L51" s="62">
+        <v>46867</v>
+      </c>
+      <c r="M51" s="179">
+        <v>46867</v>
+      </c>
+      <c r="N51" s="297">
+        <v>44336</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -2390,6 +3208,15 @@
         <f>H52*E52-I52</f>
         <v>0</v>
       </c>
+      <c r="L52" s="63">
+        <v>44336</v>
+      </c>
+      <c r="M52" s="180">
+        <v>44336</v>
+      </c>
+      <c r="N52" s="298">
+        <v>48659</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
@@ -2421,6 +3248,15 @@
         <f>H53*E53-I53</f>
         <v>0</v>
       </c>
+      <c r="L53" s="64">
+        <v>48659</v>
+      </c>
+      <c r="M53" s="181">
+        <v>48659</v>
+      </c>
+      <c r="N53" s="299">
+        <v>60587</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
@@ -2452,6 +3288,15 @@
         <f>H54*E54-I54</f>
         <v>0</v>
       </c>
+      <c r="L54" s="65">
+        <v>60587</v>
+      </c>
+      <c r="M54" s="182">
+        <v>60587</v>
+      </c>
+      <c r="N54" s="300">
+        <v>62110</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
@@ -2483,6 +3328,15 @@
         <f>H55*E55-I55</f>
         <v>0</v>
       </c>
+      <c r="L55" s="66">
+        <v>62110</v>
+      </c>
+      <c r="M55" s="183">
+        <v>62110</v>
+      </c>
+      <c r="N55" s="301">
+        <v>62545</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -2517,6 +3371,15 @@
         <f>H56*E56-I56</f>
         <v>0</v>
       </c>
+      <c r="L56" s="67">
+        <v>62545</v>
+      </c>
+      <c r="M56" s="184">
+        <v>62545</v>
+      </c>
+      <c r="N56" s="302">
+        <v>342117</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -2546,6 +3409,15 @@
         <f>H57*E57-I57</f>
         <v>0</v>
       </c>
+      <c r="L57" s="68">
+        <v>342117</v>
+      </c>
+      <c r="M57" s="185">
+        <v>342117</v>
+      </c>
+      <c r="N57" s="303">
+        <v>25841</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
@@ -2580,6 +3452,15 @@
         <f>H58*E58-I58</f>
         <v>0</v>
       </c>
+      <c r="L58" s="69">
+        <v>25841</v>
+      </c>
+      <c r="M58" s="186">
+        <v>25841</v>
+      </c>
+      <c r="N58" s="304">
+        <v>332534</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -2614,6 +3495,15 @@
         <f>H59*E59-I59</f>
         <v>0</v>
       </c>
+      <c r="L59" s="70">
+        <v>332534</v>
+      </c>
+      <c r="M59" s="187">
+        <v>332534</v>
+      </c>
+      <c r="N59" s="305">
+        <v>340520</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
@@ -2648,6 +3538,15 @@
         <f>H60*E60-I60</f>
         <v>0</v>
       </c>
+      <c r="L60" s="71">
+        <v>340520</v>
+      </c>
+      <c r="M60" s="188">
+        <v>340520</v>
+      </c>
+      <c r="N60" s="306">
+        <v>64285</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
@@ -2682,6 +3581,15 @@
         <f>H61*E61-I61</f>
         <v>0</v>
       </c>
+      <c r="L61" s="72">
+        <v>64285</v>
+      </c>
+      <c r="M61" s="189">
+        <v>64285</v>
+      </c>
+      <c r="N61" s="307">
+        <v>351701</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
@@ -2716,6 +3624,15 @@
         <f>H62*E62-I62</f>
         <v>0</v>
       </c>
+      <c r="L62" s="73">
+        <v>351701</v>
+      </c>
+      <c r="M62" s="190">
+        <v>351701</v>
+      </c>
+      <c r="N62" s="308">
+        <v>375126</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
@@ -2750,6 +3667,15 @@
         <f>H63*E63-I63</f>
         <v>0</v>
       </c>
+      <c r="L63" s="74">
+        <v>375126</v>
+      </c>
+      <c r="M63" s="191">
+        <v>375126</v>
+      </c>
+      <c r="N63" s="309">
+        <v>64285</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
@@ -2784,6 +3710,15 @@
         <f>H64*E64-I64</f>
         <v>0</v>
       </c>
+      <c r="L64" s="75">
+        <v>64285</v>
+      </c>
+      <c r="M64" s="192">
+        <v>64285</v>
+      </c>
+      <c r="N64" s="310">
+        <v>64285</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
@@ -2818,6 +3753,15 @@
         <f>H65*E65-I65</f>
         <v>0</v>
       </c>
+      <c r="L65" s="76">
+        <v>64285</v>
+      </c>
+      <c r="M65" s="193">
+        <v>64285</v>
+      </c>
+      <c r="N65" s="311">
+        <v>73421</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -2852,6 +3796,15 @@
         <f>H66*E66-I66</f>
         <v>0</v>
       </c>
+      <c r="L66" s="77">
+        <v>73421</v>
+      </c>
+      <c r="M66" s="194">
+        <v>73421</v>
+      </c>
+      <c r="N66" s="312">
+        <v>43914</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
@@ -2886,6 +3839,15 @@
         <f>H67*E67-I67</f>
         <v>0</v>
       </c>
+      <c r="L67" s="78">
+        <v>43914</v>
+      </c>
+      <c r="M67" s="195">
+        <v>43914</v>
+      </c>
+      <c r="N67" s="313">
+        <v>332534</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -2920,6 +3882,15 @@
         <f>H68*E68-I68</f>
         <v>0</v>
       </c>
+      <c r="L68" s="79">
+        <v>332534</v>
+      </c>
+      <c r="M68" s="196">
+        <v>332534</v>
+      </c>
+      <c r="N68" s="314">
+        <v>42332</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -2954,6 +3925,15 @@
         <f>H69*E69-I69</f>
         <v>0</v>
       </c>
+      <c r="L69" s="80">
+        <v>42332</v>
+      </c>
+      <c r="M69" s="197">
+        <v>42332</v>
+      </c>
+      <c r="N69" s="315">
+        <v>42965</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
@@ -2983,6 +3963,15 @@
         <f>H70*E70-I70</f>
         <v>0</v>
       </c>
+      <c r="L70" s="81">
+        <v>42965</v>
+      </c>
+      <c r="M70" s="198">
+        <v>42965</v>
+      </c>
+      <c r="N70" s="316">
+        <v>56407</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
@@ -3012,6 +4001,15 @@
         <f>H71*E71-I71</f>
         <v>0</v>
       </c>
+      <c r="L71" s="82">
+        <v>56407</v>
+      </c>
+      <c r="M71" s="199">
+        <v>56407</v>
+      </c>
+      <c r="N71" s="317">
+        <v>56407</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
@@ -3041,6 +4039,15 @@
         <f>H72*E72-I72</f>
         <v>0</v>
       </c>
+      <c r="L72" s="83">
+        <v>56407</v>
+      </c>
+      <c r="M72" s="200">
+        <v>56407</v>
+      </c>
+      <c r="N72" s="318">
+        <v>32576</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
@@ -3070,6 +4077,15 @@
         <f>H73*E73-I73</f>
         <v>0</v>
       </c>
+      <c r="L73" s="84">
+        <v>32576</v>
+      </c>
+      <c r="M73" s="201">
+        <v>32576</v>
+      </c>
+      <c r="N73" s="319">
+        <v>29641</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
@@ -3099,6 +4115,15 @@
         <f>H74*E74-I74</f>
         <v>0</v>
       </c>
+      <c r="L74" s="85">
+        <v>29641</v>
+      </c>
+      <c r="M74" s="202">
+        <v>29641</v>
+      </c>
+      <c r="N74" s="320">
+        <v>33985</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
@@ -3128,6 +4153,15 @@
         <f>H75*E75-I75</f>
         <v>0</v>
       </c>
+      <c r="L75" s="86">
+        <v>33985</v>
+      </c>
+      <c r="M75" s="203">
+        <v>33985</v>
+      </c>
+      <c r="N75" s="321">
+        <v>33985</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
@@ -3157,6 +4191,15 @@
         <f>H76*E76-I76</f>
         <v>0</v>
       </c>
+      <c r="L76" s="87">
+        <v>33985</v>
+      </c>
+      <c r="M76" s="204">
+        <v>33985</v>
+      </c>
+      <c r="N76" s="322">
+        <v>34102</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
@@ -3186,6 +4229,15 @@
         <f>H77*E77-I77</f>
         <v>0</v>
       </c>
+      <c r="L77" s="88">
+        <v>34102</v>
+      </c>
+      <c r="M77" s="205">
+        <v>34102</v>
+      </c>
+      <c r="N77" s="323">
+        <v>31871</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -3215,6 +4267,15 @@
         <f>H78*E78-I78</f>
         <v>0</v>
       </c>
+      <c r="L78" s="89">
+        <v>31871</v>
+      </c>
+      <c r="M78" s="206">
+        <v>31871</v>
+      </c>
+      <c r="N78" s="324">
+        <v>29993</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
@@ -3244,6 +4305,15 @@
         <f>H79*E79-I79</f>
         <v>0</v>
       </c>
+      <c r="L79" s="90">
+        <v>29993</v>
+      </c>
+      <c r="M79" s="207">
+        <v>29993</v>
+      </c>
+      <c r="N79" s="325">
+        <v>29993</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
@@ -3273,6 +4343,15 @@
         <f>H80*E80-I80</f>
         <v>0</v>
       </c>
+      <c r="L80" s="91">
+        <v>29993</v>
+      </c>
+      <c r="M80" s="208">
+        <v>29993</v>
+      </c>
+      <c r="N80" s="326">
+        <v>26585</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
@@ -3302,6 +4381,15 @@
         <f>H81*E81-I81</f>
         <v>0</v>
       </c>
+      <c r="L81" s="92">
+        <v>26585</v>
+      </c>
+      <c r="M81" s="209">
+        <v>26585</v>
+      </c>
+      <c r="N81" s="327">
+        <v>30815</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
@@ -3331,6 +4419,15 @@
         <f>H82*E82-I82</f>
         <v>0</v>
       </c>
+      <c r="L82" s="93">
+        <v>30815</v>
+      </c>
+      <c r="M82" s="210">
+        <v>30815</v>
+      </c>
+      <c r="N82" s="328">
+        <v>38247</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
@@ -3360,6 +4457,15 @@
         <f>H83*E83-I83</f>
         <v>0</v>
       </c>
+      <c r="L83" s="94">
+        <v>38247</v>
+      </c>
+      <c r="M83" s="211">
+        <v>38247</v>
+      </c>
+      <c r="N83" s="329">
+        <v>38247</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
@@ -3389,6 +4495,15 @@
         <f>H84*E84-I84</f>
         <v>0</v>
       </c>
+      <c r="L84" s="95">
+        <v>38247</v>
+      </c>
+      <c r="M84" s="212">
+        <v>38247</v>
+      </c>
+      <c r="N84" s="330">
+        <v>46374</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
@@ -3418,6 +4533,15 @@
         <f>H85*E85-I85</f>
         <v>0</v>
       </c>
+      <c r="L85" s="96">
+        <v>46374</v>
+      </c>
+      <c r="M85" s="213">
+        <v>46374</v>
+      </c>
+      <c r="N85" s="331">
+        <v>52256</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
@@ -3447,6 +4571,15 @@
         <f>H86*E86-I86</f>
         <v>0</v>
       </c>
+      <c r="L86" s="97">
+        <v>52256</v>
+      </c>
+      <c r="M86" s="214">
+        <v>52256</v>
+      </c>
+      <c r="N86" s="332">
+        <v>37163</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
@@ -3476,6 +4609,15 @@
         <f>H87*E87-I87</f>
         <v>0</v>
       </c>
+      <c r="L87" s="98">
+        <v>37163</v>
+      </c>
+      <c r="M87" s="215">
+        <v>37163</v>
+      </c>
+      <c r="N87" s="333">
+        <v>26775</v>
+      </c>
     </row>
     <row r="88" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
@@ -3505,6 +4647,15 @@
         <f>H88*E88-I88</f>
         <v>0</v>
       </c>
+      <c r="L88" s="99">
+        <v>26775</v>
+      </c>
+      <c r="M88" s="216">
+        <v>26775</v>
+      </c>
+      <c r="N88" s="334">
+        <v>27460</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
@@ -3534,6 +4685,15 @@
         <f>H89*E89-I89</f>
         <v>0</v>
       </c>
+      <c r="L89" s="100">
+        <v>27460</v>
+      </c>
+      <c r="M89" s="217">
+        <v>27460</v>
+      </c>
+      <c r="N89" s="335">
+        <v>37525</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
@@ -3563,6 +4723,15 @@
         <f>H90*E90-I90</f>
         <v>0</v>
       </c>
+      <c r="L90" s="101">
+        <v>37525</v>
+      </c>
+      <c r="M90" s="218">
+        <v>37525</v>
+      </c>
+      <c r="N90" s="336">
+        <v>18190</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
@@ -3592,6 +4761,15 @@
         <f>H91*E91-I91</f>
         <v>0</v>
       </c>
+      <c r="L91" s="102">
+        <v>18190</v>
+      </c>
+      <c r="M91" s="219">
+        <v>18190</v>
+      </c>
+      <c r="N91" s="337">
+        <v>16966</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
@@ -3621,6 +4799,15 @@
         <f>H92*E92-I92</f>
         <v>0</v>
       </c>
+      <c r="L92" s="103">
+        <v>16966</v>
+      </c>
+      <c r="M92" s="220">
+        <v>16966</v>
+      </c>
+      <c r="N92" s="338">
+        <v>17884</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
@@ -3650,6 +4837,15 @@
         <f>H93*E93-I93</f>
         <v>0</v>
       </c>
+      <c r="L93" s="104">
+        <v>17884</v>
+      </c>
+      <c r="M93" s="221">
+        <v>17884</v>
+      </c>
+      <c r="N93" s="339">
+        <v>18267</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
@@ -3679,6 +4875,15 @@
         <f>H94*E94-I94</f>
         <v>0</v>
       </c>
+      <c r="L94" s="105">
+        <v>18267</v>
+      </c>
+      <c r="M94" s="222">
+        <v>18267</v>
+      </c>
+      <c r="N94" s="340">
+        <v>16839</v>
+      </c>
     </row>
     <row r="95" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
@@ -3708,6 +4913,15 @@
         <f>H95*E95-I95</f>
         <v>0</v>
       </c>
+      <c r="L95" s="106">
+        <v>16839</v>
+      </c>
+      <c r="M95" s="223">
+        <v>16839</v>
+      </c>
+      <c r="N95" s="341">
+        <v>17196</v>
+      </c>
     </row>
     <row r="96" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
@@ -3737,6 +4951,15 @@
         <f>H96*E96-I96</f>
         <v>0</v>
       </c>
+      <c r="L96" s="107">
+        <v>17196</v>
+      </c>
+      <c r="M96" s="224">
+        <v>17196</v>
+      </c>
+      <c r="N96" s="342">
+        <v>18037</v>
+      </c>
     </row>
     <row r="97" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
@@ -3766,6 +4989,15 @@
         <f>H97*E97-I97</f>
         <v>0</v>
       </c>
+      <c r="L97" s="108">
+        <v>18037</v>
+      </c>
+      <c r="M97" s="225">
+        <v>18037</v>
+      </c>
+      <c r="N97" s="343">
+        <v>22424</v>
+      </c>
     </row>
     <row r="98" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
@@ -3795,6 +5027,15 @@
         <f>H98*E98-I98</f>
         <v>0</v>
       </c>
+      <c r="L98" s="109">
+        <v>22424</v>
+      </c>
+      <c r="M98" s="226">
+        <v>22424</v>
+      </c>
+      <c r="N98" s="344">
+        <v>18267</v>
+      </c>
     </row>
     <row r="99" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
@@ -3824,6 +5065,15 @@
         <f>H99*E99-I99</f>
         <v>0</v>
       </c>
+      <c r="L99" s="110">
+        <v>18267</v>
+      </c>
+      <c r="M99" s="227">
+        <v>18267</v>
+      </c>
+      <c r="N99" s="345">
+        <v>16941</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
@@ -3853,6 +5103,15 @@
         <f>H100*E100-I100</f>
         <v>0</v>
       </c>
+      <c r="L100" s="111">
+        <v>16941</v>
+      </c>
+      <c r="M100" s="228">
+        <v>16941</v>
+      </c>
+      <c r="N100" s="346">
+        <v>17594</v>
+      </c>
     </row>
     <row r="101" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
@@ -3882,6 +5141,15 @@
         <f>H101*E101-I101</f>
         <v>0</v>
       </c>
+      <c r="L101" s="112">
+        <v>17594</v>
+      </c>
+      <c r="M101" s="229">
+        <v>17594</v>
+      </c>
+      <c r="N101" s="347">
+        <v>17485</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
@@ -3916,6 +5184,15 @@
         <f>H102*E102-I102</f>
         <v>0</v>
       </c>
+      <c r="L102" s="113">
+        <v>17485</v>
+      </c>
+      <c r="M102" s="230">
+        <v>17485</v>
+      </c>
+      <c r="N102" s="348">
+        <v>42332</v>
+      </c>
     </row>
     <row r="103" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
@@ -3950,6 +5227,15 @@
         <f>H103*E103-I103</f>
         <v>0</v>
       </c>
+      <c r="L103" s="114">
+        <v>42332</v>
+      </c>
+      <c r="M103" s="231">
+        <v>42332</v>
+      </c>
+      <c r="N103" s="349">
+        <v>42016</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
@@ -3984,6 +5270,15 @@
         <f>H104*E104-I104</f>
         <v>0</v>
       </c>
+      <c r="L104" s="115">
+        <v>42016</v>
+      </c>
+      <c r="M104" s="232">
+        <v>42016</v>
+      </c>
+      <c r="N104" s="350">
+        <v>48343</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
@@ -4018,6 +5313,15 @@
         <f>H105*E105-I105</f>
         <v>0</v>
       </c>
+      <c r="L105" s="116">
+        <v>48343</v>
+      </c>
+      <c r="M105" s="233">
+        <v>48343</v>
+      </c>
+      <c r="N105" s="351">
+        <v>48343</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
@@ -4052,6 +5356,15 @@
         <f>H106*E106-I106</f>
         <v>0</v>
       </c>
+      <c r="L106" s="117">
+        <v>48343</v>
+      </c>
+      <c r="M106" s="234">
+        <v>48343</v>
+      </c>
+      <c r="N106" s="352">
+        <v>45074</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
@@ -4086,6 +5399,15 @@
         <f>H107*E107-I107</f>
         <v>0</v>
       </c>
+      <c r="L107" s="118">
+        <v>45074</v>
+      </c>
+      <c r="M107" s="235">
+        <v>45074</v>
+      </c>
+      <c r="N107" s="353">
+        <v>43914</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
@@ -4120,6 +5442,15 @@
         <f>H108*E108-I108</f>
         <v>0</v>
       </c>
+      <c r="L108" s="119">
+        <v>43914</v>
+      </c>
+      <c r="M108" s="236">
+        <v>43914</v>
+      </c>
+      <c r="N108" s="354">
+        <v>43914</v>
+      </c>
     </row>
     <row r="109" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
@@ -4154,6 +5485,15 @@
         <f>H109*E109-I109</f>
         <v>0</v>
       </c>
+      <c r="L109" s="120">
+        <v>43914</v>
+      </c>
+      <c r="M109" s="237">
+        <v>43914</v>
+      </c>
+      <c r="N109" s="355">
+        <v>73421</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
@@ -4183,6 +5523,15 @@
         <f>H110*E110-I110</f>
         <v>0</v>
       </c>
+      <c r="L110" s="121">
+        <v>73421</v>
+      </c>
+      <c r="M110" s="238">
+        <v>73421</v>
+      </c>
+      <c r="N110" s="356">
+        <v>31285</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
@@ -4212,6 +5561,15 @@
         <f>H111*E111-I111</f>
         <v>0</v>
       </c>
+      <c r="L111" s="122">
+        <v>31285</v>
+      </c>
+      <c r="M111" s="239">
+        <v>31285</v>
+      </c>
+      <c r="N111" s="357">
+        <v>29758</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
@@ -4241,6 +5599,15 @@
         <f>H112*E112-I112</f>
         <v>0</v>
       </c>
+      <c r="L112" s="123">
+        <v>29758</v>
+      </c>
+      <c r="M112" s="240">
+        <v>29758</v>
+      </c>
+      <c r="N112" s="358">
+        <v>29406</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
@@ -4270,6 +5637,15 @@
         <f>H113*E113-I113</f>
         <v>0</v>
       </c>
+      <c r="L113" s="124">
+        <v>29406</v>
+      </c>
+      <c r="M113" s="241">
+        <v>29406</v>
+      </c>
+      <c r="N113" s="359">
+        <v>57346</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
@@ -4299,6 +5675,15 @@
         <f>H114*E114-I114</f>
         <v>0</v>
       </c>
+      <c r="L114" s="125">
+        <v>57346</v>
+      </c>
+      <c r="M114" s="242">
+        <v>57346</v>
+      </c>
+      <c r="N114" s="360">
+        <v>30815</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
@@ -4328,6 +5713,15 @@
         <f>H115*E115-I115</f>
         <v>0</v>
       </c>
+      <c r="L115" s="126">
+        <v>30815</v>
+      </c>
+      <c r="M115" s="243">
+        <v>30815</v>
+      </c>
+      <c r="N115" s="361">
+        <v>30815</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
@@ -4357,6 +5751,15 @@
         <f>H116*E116-I116</f>
         <v>0</v>
       </c>
+      <c r="L116" s="127">
+        <v>30815</v>
+      </c>
+      <c r="M116" s="244">
+        <v>30815</v>
+      </c>
+      <c r="N116" s="362">
+        <v>37344</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
@@ -4385,6 +5788,15 @@
       <c r="K117">
         <f>H117*E117-I117</f>
         <v>0</v>
+      </c>
+      <c r="L117" s="128">
+        <v>37344</v>
+      </c>
+      <c r="M117" s="245">
+        <v>37344</v>
+      </c>
+      <c r="N117" s="363">
+        <v>37344</v>
       </c>
     </row>
   </sheetData>
